--- a/PS-VRP/Archivio/Archivio output/output_ridotto.xlsx
+++ b/PS-VRP/Archivio/Archivio output/output_ridotto.xlsx
@@ -44,8 +44,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D2E9"/>
-        <bgColor rgb="00D9D2E9"/>
+        <fgColor rgb="00D5E8D4"/>
+        <bgColor rgb="00D5E8D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EAD1DC"/>
+        <bgColor rgb="00EAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F4CCCC"/>
+        <bgColor rgb="00F4CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -56,8 +68,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D5E8D4"/>
-        <bgColor rgb="00D5E8D4"/>
+        <fgColor rgb="00E2EFDA"/>
+        <bgColor rgb="00E2EFDA"/>
       </patternFill>
     </fill>
     <fill>
@@ -68,20 +80,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EAD1DC"/>
-        <bgColor rgb="00EAD1DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E2EFDA"/>
-        <bgColor rgb="00E2EFDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F4CCCC"/>
-        <bgColor rgb="00F4CCCC"/>
+        <fgColor rgb="00D9D2E9"/>
+        <bgColor rgb="00D9D2E9"/>
       </patternFill>
     </fill>
   </fills>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -541,7 +541,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>252569</v>
+        <v>243569</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>243569</v>
+        <v>252569</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -573,12 +573,12 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:26:35</t>
+          <t>08-09-2025 07:38:40</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 07:45:35</t>
+          <t>08-09-2025 07:57:40</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
@@ -587,7 +587,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>252906</v>
+        <v>235572</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 08:24:15</t>
+          <t>08-09-2025 08:41:15</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
@@ -610,7 +610,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>252843</v>
+        <v>253687</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -619,12 +619,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 08:58:59</t>
+          <t>08-09-2025 10:04:14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 09:23:59</t>
+          <t>08-09-2025 10:27:14</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
@@ -633,7 +633,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>253313</v>
+        <v>252906</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -642,12 +642,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 09:43:11</t>
+          <t>08-09-2025 11:11:28</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 10:08:11</t>
+          <t>08-09-2025 11:43:28</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
@@ -656,7 +656,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>253706</v>
+        <v>253284</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -665,12 +665,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 11:48:11</t>
+          <t>08-09-2025 12:18:12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>08-09-2025 12:11:11</t>
+          <t>08-09-2025 12:39:12</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
@@ -679,7 +679,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>253095</v>
+        <v>252815</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -688,12 +688,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 09:22:11</t>
+          <t>08-09-2025 13:36:11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>09-09-2025 10:04:11</t>
+          <t>08-09-2025 13:59:11</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
@@ -701,100 +701,100 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>253284</v>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:27:00</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="n">
+      <c r="A9" s="2" t="n">
+        <v>253361</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>BIMEC 3</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:02:08</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:44:08</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>253140</v>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:23:59</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>08-09-2025 08:50:59</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="n">
+      <c r="A10" s="2" t="n">
+        <v>253372</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>BIMEC 3</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>09-09-2025 12:00:50</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>09-09-2025 12:15:50</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>252827</v>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:46:49</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>08-09-2025 10:13:49</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="n">
+      <c r="A11" s="2" t="n">
+        <v>253375</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>BIMEC 3</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>09-09-2025 13:59:37</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:14:37</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>253361</v>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:03:49</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:45:49</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="n">
+      <c r="A12" s="2" t="n">
+        <v>253368</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>BIMEC 3</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10-09-2025 07:06:30</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10-09-2025 07:21:30</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>250891</v>
+        <v>252827</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
@@ -803,12 +803,12 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09-09-2025 11:02:32</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>09-09-2025 11:33:32</t>
+          <t>08-09-2025 07:27:00</t>
         </is>
       </c>
       <c r="E13" s="3" t="n">
@@ -817,7 +817,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>253100</v>
+        <v>252995</v>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
@@ -826,12 +826,12 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>09-09-2025 12:51:01</t>
+          <t>08-09-2025 14:17:00</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>09-09-2025 13:18:01</t>
+          <t>08-09-2025 14:44:00</t>
         </is>
       </c>
       <c r="E14" s="3" t="n">
@@ -840,7 +840,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>244023</v>
+        <v>253374</v>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
@@ -849,12 +849,12 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>09-09-2025 14:05:22</t>
+          <t>09-09-2025 07:52:19</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>09-09-2025 14:34:22</t>
+          <t>09-09-2025 08:34:19</t>
         </is>
       </c>
       <c r="E15" s="3" t="n">
@@ -862,150 +862,146 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
-        <v>253591</v>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>05-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="inlineStr">
-        <is>
-          <t>05-09-2025 07:34:00</t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="A16" s="3" t="n">
+        <v>252939</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>09-09-2025 09:33:55</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>09-09-2025 10:00:55</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
-        <v>253194</v>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>05-09-2025 07:51:25</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>05-09-2025 08:10:25</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="n">
+      <c r="A17" s="3" t="n">
+        <v>253267</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>09-09-2025 11:30:43</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>09-09-2025 11:57:43</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
-        <v>253409</v>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>05-09-2025 11:29:30</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="inlineStr">
-        <is>
-          <t>05-09-2025 11:44:30</t>
-        </is>
-      </c>
-      <c r="E18" s="4" t="n">
+      <c r="A18" s="3" t="n">
+        <v>253359</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:42:05</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>10-09-2025 07:09:05</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
-        <v>252664</v>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>05-09-2025 12:11:41</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="inlineStr">
-        <is>
-          <t>05-09-2025 12:43:41</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="A19" s="3" t="n">
+        <v>253268</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>10-09-2025 09:23:06</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>10-09-2025 09:50:06</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
-        <v>252939</v>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>08-09-2025 10:49:39</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>08-09-2025 11:06:39</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="n">
+      <c r="A20" s="3" t="n">
+        <v>253313</v>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>10-09-2025 11:08:40</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>10-09-2025 11:54:40</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n">
-        <v>252833</v>
-      </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>BIMEC 5</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:36:27</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:55:27</t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="n">
+      <c r="A21" s="3" t="n">
+        <v>253706</v>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>BIMEC 4</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>10-09-2025 13:34:40</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:07:40</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="n">
-        <v>253246</v>
+        <v>253016</v>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
@@ -1014,21 +1010,23 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 14:10:14</t>
+          <t>05-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>08-09-2025 14:27:14</t>
-        </is>
-      </c>
-      <c r="E22" s="4" t="n">
-        <v>0</v>
+          <t>05-09-2025 07:32:00</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>252216</v>
+        <v>253140</v>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
@@ -1037,12 +1035,12 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 09:41:29</t>
+          <t>05-09-2025 08:45:23</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 10:08:29</t>
+          <t>05-09-2025 09:17:23</t>
         </is>
       </c>
       <c r="E23" s="4" t="n">
@@ -1051,7 +1049,7 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="n">
-        <v>253710</v>
+        <v>253249</v>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
@@ -1060,12 +1058,12 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 12:30:18</t>
+          <t>05-09-2025 10:13:13</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 12:59:18</t>
+          <t>05-09-2025 10:32:13</t>
         </is>
       </c>
       <c r="E24" s="4" t="n">
@@ -1074,7 +1072,7 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>252815</v>
+        <v>252664</v>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
@@ -1083,21 +1081,23 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 13:00:55</t>
+          <t>05-09-2025 11:29:58</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>09-09-2025 13:40:55</t>
-        </is>
-      </c>
-      <c r="E25" s="4" t="n">
-        <v>0</v>
+          <t>05-09-2025 12:01:58</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="n">
-        <v>253260</v>
+        <v>252216</v>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
@@ -1106,12 +1106,12 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 09:43:51</t>
+          <t>08-09-2025 10:07:57</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 10:21:51</t>
+          <t>08-09-2025 10:38:57</t>
         </is>
       </c>
       <c r="E26" s="4" t="n">
@@ -1120,7 +1120,7 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>253527</v>
+        <v>253072</v>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
@@ -1129,12 +1129,12 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 12:11:16</t>
+          <t>08-09-2025 13:00:45</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 12:28:16</t>
+          <t>08-09-2025 13:23:45</t>
         </is>
       </c>
       <c r="E27" s="4" t="n">
@@ -1143,7 +1143,7 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="n">
-        <v>253524</v>
+        <v>253278</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
@@ -1152,12 +1152,12 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 13:35:45</t>
+          <t>08-09-2025 13:52:53</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 13:50:45</t>
+          <t>08-09-2025 14:07:53</t>
         </is>
       </c>
       <c r="E28" s="4" t="n">
@@ -1166,7 +1166,7 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>253375</v>
+        <v>244023</v>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
@@ -1175,12 +1175,12 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>10-09-2025 14:49:30</t>
+          <t>08-09-2025 14:36:19</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>11-09-2025 07:06:30</t>
+          <t>09-09-2025 07:01:19</t>
         </is>
       </c>
       <c r="E29" s="4" t="n">
@@ -1189,7 +1189,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="n">
-        <v>253372</v>
+        <v>252833</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
@@ -1198,12 +1198,12 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>11-09-2025 07:58:23</t>
+          <t>09-09-2025 07:09:37</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>11-09-2025 08:13:23</t>
+          <t>09-09-2025 07:30:37</t>
         </is>
       </c>
       <c r="E30" s="4" t="n">
@@ -1212,7 +1212,7 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>253332</v>
+        <v>253095</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
@@ -1221,12 +1221,12 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>11-09-2025 09:57:10</t>
+          <t>09-09-2025 08:45:24</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>11-09-2025 10:14:10</t>
+          <t>09-09-2025 09:02:24</t>
         </is>
       </c>
       <c r="E31" s="4" t="n">
@@ -1235,7 +1235,7 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="n">
-        <v>253370</v>
+        <v>250891</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
@@ -1244,12 +1244,12 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>11-09-2025 13:18:59</t>
+          <t>09-09-2025 10:18:43</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>11-09-2025 13:35:59</t>
+          <t>09-09-2025 10:39:43</t>
         </is>
       </c>
       <c r="E32" s="4" t="n">
@@ -1258,7 +1258,7 @@
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>253368</v>
+        <v>253246</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
@@ -1267,12 +1267,12 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>12-09-2025 09:03:32</t>
+          <t>09-09-2025 11:57:13</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>12-09-2025 09:18:32</t>
+          <t>09-09-2025 12:14:13</t>
         </is>
       </c>
       <c r="E33" s="4" t="n">
@@ -1280,448 +1280,446 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n">
-        <v>253374</v>
-      </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="A34" s="4" t="n">
+        <v>253100</v>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>10-09-2025 07:28:28</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>10-09-2025 07:43:28</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n">
+        <v>253602</v>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>10-09-2025 08:30:49</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>10-09-2025 09:02:49</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n">
+        <v>253247</v>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>10-09-2025 10:59:54</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>10-09-2025 11:31:54</t>
+        </is>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="n">
+        <v>253401</v>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>10-09-2025 13:21:28</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>10-09-2025 13:38:28</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n">
+        <v>253245</v>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:01:17</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:18:17</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n">
+        <v>253377</v>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>BIMEC 5</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>11-09-2025 08:49:07</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>11-09-2025 09:08:07</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="n">
+        <v>253659</v>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>CASON</t>
         </is>
       </c>
-      <c r="C34" s="5" t="inlineStr">
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>09-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="D34" s="5" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:36:30</t>
-        </is>
-      </c>
-      <c r="E34" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:38:30</t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n">
+        <v>252002</v>
+      </c>
+      <c r="B41" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>04-09-2025 12:00:00</t>
+        </is>
+      </c>
+      <c r="D41" s="6" t="inlineStr">
+        <is>
+          <t>04-09-2025 12:55:00</t>
+        </is>
+      </c>
+      <c r="E41" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n">
+        <v>253425</v>
+      </c>
+      <c r="B42" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C42" s="6" t="inlineStr">
+        <is>
+          <t>04-09-2025 13:50:40</t>
+        </is>
+      </c>
+      <c r="D42" s="6" t="inlineStr">
+        <is>
+          <t>04-09-2025 14:30:40</t>
+        </is>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n">
+        <v>252685</v>
+      </c>
+      <c r="B43" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:57:01</t>
+        </is>
+      </c>
+      <c r="D43" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 09:27:01</t>
+        </is>
+      </c>
+      <c r="E43" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n">
+        <v>252582</v>
+      </c>
+      <c r="B44" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 10:41:35</t>
+        </is>
+      </c>
+      <c r="D44" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 11:11:35</t>
+        </is>
+      </c>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n">
+        <v>253314</v>
+      </c>
+      <c r="B45" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 11:57:40</t>
+        </is>
+      </c>
+      <c r="D45" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 12:27:40</t>
+        </is>
+      </c>
+      <c r="E45" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n">
+        <v>253036</v>
+      </c>
+      <c r="B46" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C46" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:11:05</t>
+        </is>
+      </c>
+      <c r="D46" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:41:05</t>
+        </is>
+      </c>
+      <c r="E46" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n">
         <v>252682</v>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B47" s="6" t="inlineStr">
         <is>
           <t>H7</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>04-09-2025 12:00:00</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t>04-09-2025 12:55:00</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:59:49</t>
+        </is>
+      </c>
+      <c r="D47" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:29:49</t>
+        </is>
+      </c>
+      <c r="E47" s="6" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>252679</v>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="6" t="n">
+        <v>253710</v>
+      </c>
+      <c r="B48" s="6" t="inlineStr">
         <is>
           <t>H7</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:18:24</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>04-09-2025 14:48:24</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>252685</v>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="C48" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:53:13</t>
+        </is>
+      </c>
+      <c r="D48" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:33:13</t>
+        </is>
+      </c>
+      <c r="E48" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n">
+        <v>252601</v>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
         <is>
           <t>H7</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>05-09-2025 07:48:24</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr">
-        <is>
-          <t>05-09-2025 08:18:24</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>252582</v>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:34:50</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:54:50</t>
+        </is>
+      </c>
+      <c r="E49" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n">
+        <v>253223</v>
+      </c>
+      <c r="B50" s="6" t="inlineStr">
         <is>
           <t>H7</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>05-09-2025 09:32:58</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>05-09-2025 10:02:58</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>253314</v>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="C50" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:46:03</t>
+        </is>
+      </c>
+      <c r="D50" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:16:03</t>
+        </is>
+      </c>
+      <c r="E50" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n">
+        <v>253208</v>
+      </c>
+      <c r="B51" s="6" t="inlineStr">
         <is>
           <t>H7</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>05-09-2025 10:49:03</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr">
-        <is>
-          <t>05-09-2025 11:19:03</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>253317</v>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>05-09-2025 12:02:28</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr">
-        <is>
-          <t>05-09-2025 12:32:28</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>253425</v>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>05-09-2025 14:15:14</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>05-09-2025 14:50:14</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>253036</v>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:16:35</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:51:35</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>252002</v>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>08-09-2025 11:10:19</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="inlineStr">
-        <is>
-          <t>08-09-2025 11:50:19</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>252883</v>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:46:00</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="inlineStr">
-        <is>
-          <t>08-09-2025 13:51:00</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>253208</v>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>09-09-2025 09:58:18</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="inlineStr">
-        <is>
-          <t>09-09-2025 10:28:18</t>
-        </is>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>253210</v>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>09-09-2025 12:12:34</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="inlineStr">
-        <is>
-          <t>09-09-2025 12:37:34</t>
-        </is>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>252601</v>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>09-09-2025 14:11:43</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="inlineStr">
-        <is>
-          <t>09-09-2025 14:41:43</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>253223</v>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>10-09-2025 07:32:56</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="inlineStr">
-        <is>
-          <t>10-09-2025 08:02:56</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>235572</v>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>10-09-2025 08:19:20</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="inlineStr">
-        <is>
-          <t>10-09-2025 09:24:20</t>
-        </is>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>253245</v>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>10-09-2025 10:47:19</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="inlineStr">
-        <is>
-          <t>10-09-2025 11:17:19</t>
-        </is>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>253401</v>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>H7</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>10-09-2025 13:48:09</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="inlineStr">
-        <is>
-          <t>10-09-2025 14:18:09</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="n">
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 12:32:27</t>
+        </is>
+      </c>
+      <c r="D51" s="6" t="inlineStr">
+        <is>
+          <t>08-09-2025 13:57:27</t>
+        </is>
+      </c>
+      <c r="E51" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6" t="n">
-        <v>253249</v>
+        <v>253210</v>
       </c>
       <c r="B52" s="6" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C52" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 07:00:00</t>
+          <t>09-09-2025 07:41:42</t>
         </is>
       </c>
       <c r="D52" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 07:19:00</t>
+          <t>09-09-2025 08:06:42</t>
         </is>
       </c>
       <c r="E52" s="6" t="n">
@@ -1730,21 +1728,21 @@
     </row>
     <row r="53">
       <c r="A53" s="6" t="n">
-        <v>253318</v>
+        <v>253686</v>
       </c>
       <c r="B53" s="6" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>H7</t>
         </is>
       </c>
       <c r="C53" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 08:16:45</t>
+          <t>09-09-2025 09:40:52</t>
         </is>
       </c>
       <c r="D53" s="6" t="inlineStr">
         <is>
-          <t>08-09-2025 08:31:45</t>
+          <t>09-09-2025 10:45:52</t>
         </is>
       </c>
       <c r="E53" s="6" t="n">
@@ -1752,45 +1750,45 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="7" t="n">
-        <v>253686</v>
-      </c>
-      <c r="B54" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C54" s="7" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:00:00</t>
-        </is>
-      </c>
-      <c r="D54" s="7" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:40:00</t>
-        </is>
-      </c>
-      <c r="E54" s="7" t="n">
+      <c r="A54" s="6" t="n">
+        <v>252883</v>
+      </c>
+      <c r="B54" s="6" t="inlineStr">
+        <is>
+          <t>H7</t>
+        </is>
+      </c>
+      <c r="C54" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 11:30:06</t>
+        </is>
+      </c>
+      <c r="D54" s="6" t="inlineStr">
+        <is>
+          <t>09-09-2025 12:30:06</t>
+        </is>
+      </c>
+      <c r="E54" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="7" t="n">
-        <v>253687</v>
+        <v>253194</v>
       </c>
       <c r="B55" s="7" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C55" s="7" t="inlineStr">
         <is>
-          <t>09-09-2025 08:24:14</t>
+          <t>08-09-2025 07:00:00</t>
         </is>
       </c>
       <c r="D55" s="7" t="inlineStr">
         <is>
-          <t>09-09-2025 08:49:14</t>
+          <t>08-09-2025 07:19:00</t>
         </is>
       </c>
       <c r="E55" s="7" t="n">
@@ -1799,21 +1797,21 @@
     </row>
     <row r="56">
       <c r="A56" s="7" t="n">
-        <v>253659</v>
+        <v>253409</v>
       </c>
       <c r="B56" s="7" t="inlineStr">
         <is>
-          <t>R5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>09-09-2025 09:33:28</t>
+          <t>08-09-2025 10:38:05</t>
         </is>
       </c>
       <c r="D56" s="7" t="inlineStr">
         <is>
-          <t>09-09-2025 09:58:28</t>
+          <t>08-09-2025 10:53:05</t>
         </is>
       </c>
       <c r="E56" s="7" t="n">
@@ -1821,378 +1819,888 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="7" t="n">
-        <v>253247</v>
-      </c>
-      <c r="B57" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C57" s="7" t="inlineStr">
-        <is>
-          <t>10-09-2025 07:22:13</t>
-        </is>
-      </c>
-      <c r="D57" s="7" t="inlineStr">
-        <is>
-          <t>10-09-2025 07:52:13</t>
-        </is>
-      </c>
-      <c r="E57" s="7" t="n">
+      <c r="A57" s="2" t="n">
+        <v>252843</v>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:00:00</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>09-09-2025 07:55:00</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="7" t="n">
+      <c r="A58" s="2" t="n">
+        <v>253522</v>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>09-09-2025 08:14:12</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>09-09-2025 09:14:12</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>253527</v>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>09-09-2025 12:32:49</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>09-09-2025 12:57:49</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>253721</v>
       </c>
-      <c r="B58" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C58" s="7" t="inlineStr">
-        <is>
-          <t>10-09-2025 09:41:47</t>
-        </is>
-      </c>
-      <c r="D58" s="7" t="inlineStr">
-        <is>
-          <t>10-09-2025 10:11:47</t>
-        </is>
-      </c>
-      <c r="E58" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="7" t="n">
-        <v>253602</v>
-      </c>
-      <c r="B59" s="7" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="C59" s="7" t="inlineStr">
-        <is>
-          <t>10-09-2025 10:51:11</t>
-        </is>
-      </c>
-      <c r="D59" s="7" t="inlineStr">
-        <is>
-          <t>10-09-2025 11:31:11</t>
-        </is>
-      </c>
-      <c r="E59" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="8" t="n">
-        <v>253016</v>
-      </c>
-      <c r="B60" s="8" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:05:18</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>09-09-2025 14:40:18</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>253332</v>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>10-09-2025 07:19:42</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>10-09-2025 07:49:42</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>253370</v>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>10-09-2025 10:54:31</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>10-09-2025 11:24:31</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>244743</v>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>10-09-2025 14:52:04</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>11-09-2025 07:22:04</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>253261</v>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>11-09-2025 07:51:24</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>11-09-2025 08:31:24</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>253436</v>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>11-09-2025 08:50:15</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>11-09-2025 09:15:15</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>253524</v>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>11-09-2025 09:34:06</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>11-09-2025 10:14:06</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>252529</v>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>11-09-2025 11:12:52</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>11-09-2025 11:52:52</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>253455</v>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>11-09-2025 13:00:57</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>11-09-2025 13:35:57</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>253668</v>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>11-09-2025 14:31:30</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>12-09-2025 07:06:30</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>252741</v>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>12-09-2025 10:16:22</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>12-09-2025 10:56:22</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>253260</v>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>12-09-2025 11:57:52</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>12-09-2025 12:27:52</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>253295</v>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:17:16</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>12-09-2025 14:47:16</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>253525</v>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>15-09-2025 10:37:21</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>15-09-2025 11:17:21</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>253367</v>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>15-09-2025 12:49:29</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>15-09-2025 13:14:29</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>253376</v>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>16-09-2025 07:30:11</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>16-09-2025 07:55:11</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>252274</v>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>16-09-2025 10:54:48</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>16-09-2025 11:39:48</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>253549</v>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>16-09-2025 14:33:13</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>17-09-2025 07:08:13</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>252397</v>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>17-09-2025 09:51:53</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>17-09-2025 10:31:53</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>253271</v>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>17-09-2025 12:27:48</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>17-09-2025 13:07:48</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>253528</v>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>17-09-2025 13:50:26</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>17-09-2025 14:30:26</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>253472</v>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>18-09-2025 08:29:37</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>18-09-2025 09:04:37</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>253392</v>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>18-09-2025 13:56:25</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>18-09-2025 14:31:25</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>253393</v>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>19-09-2025 08:40:48</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>19-09-2025 09:05:48</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>253244</v>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>19-09-2025 10:23:26</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>19-09-2025 10:53:26</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>253371</v>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>19-09-2025 13:39:56</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>19-09-2025 14:14:56</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="8" t="n">
+        <v>253259</v>
+      </c>
+      <c r="B86" s="8" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C60" s="8" t="inlineStr">
+      <c r="C86" s="8" t="inlineStr">
         <is>
           <t>05-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="D60" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 07:30:00</t>
-        </is>
-      </c>
-      <c r="E60" s="8" t="inlineStr">
+      <c r="D86" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 07:35:00</t>
+        </is>
+      </c>
+      <c r="E86" s="8" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="8" t="n">
+    <row r="87">
+      <c r="A87" s="8" t="n">
+        <v>250284</v>
+      </c>
+      <c r="B87" s="8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C87" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 08:44:14</t>
+        </is>
+      </c>
+      <c r="D87" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 09:39:14</t>
+        </is>
+      </c>
+      <c r="E87" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="8" t="n">
+        <v>252679</v>
+      </c>
+      <c r="B88" s="8" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
+      <c r="C88" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 12:05:35</t>
+        </is>
+      </c>
+      <c r="D88" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 12:50:35</t>
+        </is>
+      </c>
+      <c r="E88" s="8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="8" t="n">
         <v>252702</v>
       </c>
-      <c r="B61" s="8" t="inlineStr">
+      <c r="B89" s="8" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C61" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 08:43:23</t>
-        </is>
-      </c>
-      <c r="D61" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 09:13:23</t>
-        </is>
-      </c>
-      <c r="E61" s="8" t="inlineStr">
+      <c r="C89" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 13:50:35</t>
+        </is>
+      </c>
+      <c r="D89" s="8" t="inlineStr">
+        <is>
+          <t>05-09-2025 14:30:35</t>
+        </is>
+      </c>
+      <c r="E89" s="8" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="8" t="n">
+    <row r="90">
+      <c r="A90" s="8" t="n">
         <v>253362</v>
       </c>
-      <c r="B62" s="8" t="inlineStr">
+      <c r="B90" s="8" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C62" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 10:11:46</t>
-        </is>
-      </c>
-      <c r="D62" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 10:36:46</t>
-        </is>
-      </c>
-      <c r="E62" s="8" t="inlineStr">
+      <c r="C90" s="8" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:28:58</t>
+        </is>
+      </c>
+      <c r="D90" s="8" t="inlineStr">
+        <is>
+          <t>08-09-2025 07:53:58</t>
+        </is>
+      </c>
+      <c r="E90" s="8" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="8" t="n">
-        <v>252995</v>
-      </c>
-      <c r="B63" s="8" t="inlineStr">
+    <row r="91">
+      <c r="A91" s="8" t="n">
+        <v>253591</v>
+      </c>
+      <c r="B91" s="8" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C63" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 11:35:09</t>
-        </is>
-      </c>
-      <c r="D63" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 12:15:09</t>
-        </is>
-      </c>
-      <c r="E63" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="8" t="n">
-        <v>253259</v>
-      </c>
-      <c r="B64" s="8" t="inlineStr">
+      <c r="C91" s="8" t="inlineStr">
+        <is>
+          <t>08-09-2025 08:52:21</t>
+        </is>
+      </c>
+      <c r="D91" s="8" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:32:21</t>
+        </is>
+      </c>
+      <c r="E91" s="8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="8" t="n">
+        <v>253318</v>
+      </c>
+      <c r="B92" s="8" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C64" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 13:23:28</t>
-        </is>
-      </c>
-      <c r="D64" s="8" t="inlineStr">
-        <is>
-          <t>05-09-2025 13:58:28</t>
-        </is>
-      </c>
-      <c r="E64" s="8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="8" t="n">
-        <v>253268</v>
-      </c>
-      <c r="B65" s="8" t="inlineStr">
+      <c r="C92" s="8" t="inlineStr">
+        <is>
+          <t>08-09-2025 09:49:46</t>
+        </is>
+      </c>
+      <c r="D92" s="8" t="inlineStr">
+        <is>
+          <t>08-09-2025 10:24:46</t>
+        </is>
+      </c>
+      <c r="E92" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="8" t="n">
+        <v>253317</v>
+      </c>
+      <c r="B93" s="8" t="inlineStr">
         <is>
           <t>R9</t>
         </is>
       </c>
-      <c r="C65" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:07:42</t>
-        </is>
-      </c>
-      <c r="D65" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 07:42:42</t>
-        </is>
-      </c>
-      <c r="E65" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="8" t="n">
-        <v>253072</v>
-      </c>
-      <c r="B66" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C66" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:01:15</t>
-        </is>
-      </c>
-      <c r="D66" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 09:36:15</t>
-        </is>
-      </c>
-      <c r="E66" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="8" t="n">
-        <v>253278</v>
-      </c>
-      <c r="B67" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C67" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 10:05:23</t>
-        </is>
-      </c>
-      <c r="D67" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 10:30:23</t>
-        </is>
-      </c>
-      <c r="E67" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="8" t="n">
-        <v>253271</v>
-      </c>
-      <c r="B68" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C68" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 10:58:49</t>
-        </is>
-      </c>
-      <c r="D68" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 11:23:49</t>
-        </is>
-      </c>
-      <c r="E68" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="8" t="n">
-        <v>253267</v>
-      </c>
-      <c r="B69" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C69" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:06:27</t>
-        </is>
-      </c>
-      <c r="D69" s="8" t="inlineStr">
-        <is>
-          <t>08-09-2025 12:41:27</t>
-        </is>
-      </c>
-      <c r="E69" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="8" t="n">
-        <v>253359</v>
-      </c>
-      <c r="B70" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C70" s="8" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:25:49</t>
-        </is>
-      </c>
-      <c r="D70" s="8" t="inlineStr">
-        <is>
-          <t>09-09-2025 07:55:49</t>
-        </is>
-      </c>
-      <c r="E70" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="8" t="n">
-        <v>250284</v>
-      </c>
-      <c r="B71" s="8" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
-      <c r="C71" s="8" t="inlineStr">
-        <is>
-          <t>09-09-2025 10:09:50</t>
-        </is>
-      </c>
-      <c r="D71" s="8" t="inlineStr">
-        <is>
-          <t>09-09-2025 10:59:50</t>
-        </is>
-      </c>
-      <c r="E71" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="9" t="n">
+      <c r="C93" s="8" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:16:19</t>
+        </is>
+      </c>
+      <c r="D93" s="8" t="inlineStr">
+        <is>
+          <t>08-09-2025 11:41:19</t>
+        </is>
+      </c>
+      <c r="E93" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="n">
         <v>252980</v>
       </c>
-      <c r="B72" s="9" t="inlineStr">
+      <c r="B94" s="9" t="inlineStr">
         <is>
           <t>T3</t>
         </is>
       </c>
-      <c r="C72" s="9" t="inlineStr">
+      <c r="C94" s="9" t="inlineStr">
         <is>
           <t>08-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="D72" s="9" t="inlineStr">
+      <c r="D94" s="9" t="inlineStr">
         <is>
           <t>08-09-2025 07:00:00</t>
         </is>
       </c>
-      <c r="E72" s="9" t="n">
+      <c r="E94" s="9" t="n">
         <v>0</v>
       </c>
     </row>
